--- a/src/testData/TestCases.xlsx
+++ b/src/testData/TestCases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="109">
   <si>
     <t>Description</t>
   </si>
@@ -824,7 +824,7 @@
         <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1361,7 +1361,7 @@
         <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -1380,6 +1380,9 @@
         <v>6</v>
       </c>
       <c r="G21" s="2"/>
+      <c r="H21" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
